--- a/uc_ambrosio.xlsx
+++ b/uc_ambrosio.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ambrosiny/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ambrosiny/Desktop/Universidade/3ano/LI4/trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-36940" yWindow="2600" windowWidth="25440" windowHeight="14720" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="-25400" yWindow="-5500" windowWidth="25400" windowHeight="28800" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Acompanhamento na Receita" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="89">
   <si>
     <t>Actor input</t>
   </si>
@@ -78,18 +78,8 @@
     <t>1.Indica que quer efetuar a receita</t>
   </si>
   <si>
-    <t>2. Apresenta lista de ingredientes</t>
-  </si>
-  <si>
-    <t>3. Pergunta se todos os ingradientes
- então disponíveis</t>
-  </si>
-  <si>
     <t>4. Indica que tem todos
  os ingredientes</t>
-  </si>
-  <si>
-    <t>5. Para cada passo do processo de cozinhar faz  &lt;&lt;include&gt;&gt; Instrução Singular</t>
   </si>
   <si>
     <t>Excepção 1 
@@ -137,37 +127,12 @@
     <t>Avaliar Receita</t>
   </si>
   <si>
-    <t>6. Informa que o cozinhado está 
-pronto</t>
-  </si>
-  <si>
     <t>Acompanhamento concluido</t>
   </si>
   <si>
     <t>Receita avaliada</t>
   </si>
   <si>
-    <t>1. Apresenta os detalhes da receita</t>
-  </si>
-  <si>
-    <t>2. Indica a pontução atribuida
-ao cozinhado</t>
-  </si>
-  <si>
-    <t>3. Regista a avaliação na receita</t>
-  </si>
-  <si>
-    <t>Excepção 1 
-(passo 2)
- [não quer avaliar]</t>
-  </si>
-  <si>
-    <t>2.1 Indica que não pretende avaliar</t>
-  </si>
-  <si>
-    <t>2.2 Informa que a avaliação foi cancelada</t>
-  </si>
-  <si>
     <t>Promover Utilizador a Colaborador</t>
   </si>
   <si>
@@ -181,21 +146,12 @@
   </si>
   <si>
     <t>1. Indica que quer promover um utilizador</t>
-  </si>
-  <si>
-    <t>2. Apresenta a lista com todos os utilizadores</t>
   </si>
   <si>
     <t>4.2 &lt;&lt;include&gt;&gt; Procurar local de 
 compra de ingrediente</t>
   </si>
   <si>
-    <t>3. Seleciona o utilizador a ser promovido</t>
-  </si>
-  <si>
-    <t>4. Regista a promoção</t>
-  </si>
-  <si>
     <t>Adicionar Receita ao Favoritos</t>
   </si>
   <si>
@@ -203,12 +159,6 @@
   </si>
   <si>
     <t>1. Indica que quer adicionar uma receita aos favoritos</t>
-  </si>
-  <si>
-    <t>2. Apresenta a lista de receitas</t>
-  </si>
-  <si>
-    <t>3. Pede para escolher a receita</t>
   </si>
   <si>
     <t>4. Indica a respetiva receita</t>
@@ -289,9 +239,6 @@
     <t>Consultar Ementa Semanal</t>
   </si>
   <si>
-    <t>1. Indica que pretender aceder à ementa semanal</t>
-  </si>
-  <si>
     <t>3. Apresenta a ementa ao utilizador</t>
   </si>
   <si>
@@ -307,6 +254,80 @@
   </si>
   <si>
     <t>2.2 Cancela o pedido</t>
+  </si>
+  <si>
+    <t>1. Indica que pretende avaliar</t>
+  </si>
+  <si>
+    <t>5. Regista a promoção</t>
+  </si>
+  <si>
+    <t>2. Calcula a lista de ingredientes</t>
+  </si>
+  <si>
+    <t>3. Apresenta lista de ingredientes</t>
+  </si>
+  <si>
+    <t>Excepção 2
+ (Passo 6) [Pretende cancelar]</t>
+  </si>
+  <si>
+    <t>6.1 Informa que pretende 
+cancelar</t>
+  </si>
+  <si>
+    <t>6.2 Cancela o procedimento</t>
+  </si>
+  <si>
+    <t>5. Pergunta se o acompanhamento 
+pode começar</t>
+  </si>
+  <si>
+    <t>6. Indica que pretende iniciar o processo</t>
+  </si>
+  <si>
+    <t>7. Calcula todas as instruções necessárias</t>
+  </si>
+  <si>
+    <t>8. Para cada passo do processo de cozinhar faz  &lt;&lt;include&gt;&gt; Instrução Singular</t>
+  </si>
+  <si>
+    <t>9. Informa que o cozinhado está 
+pronto</t>
+  </si>
+  <si>
+    <t>2. Procura a receita</t>
+  </si>
+  <si>
+    <t>3. Apresenta a receita e as possíveis avaliações/sugestões</t>
+  </si>
+  <si>
+    <t>4. Preenche os campos</t>
+  </si>
+  <si>
+    <t>5. Submete avaliação</t>
+  </si>
+  <si>
+    <t>6. Regista avaliação</t>
+  </si>
+  <si>
+    <t>2. Calcula lista com todos os utilizadores
+ que não sejam colaboradores</t>
+  </si>
+  <si>
+    <t>3. Apresenta a lista com todos os utilizadores</t>
+  </si>
+  <si>
+    <t>4. Seleciona o utilizador a ser promovido</t>
+  </si>
+  <si>
+    <t>3. Apresenta a lista de receitas</t>
+  </si>
+  <si>
+    <t>3.3 Salta para 4</t>
+  </si>
+  <si>
+    <t>1. Indica que pretende aceder à ementa semanal</t>
   </si>
 </sst>
 </file>
@@ -613,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -634,12 +655,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -651,6 +667,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -670,36 +704,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D15"/>
+  <dimension ref="B1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1033,40 +1055,40 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1077,76 +1099,119 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="25"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="25"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="3"/>
       <c r="D8" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="32"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="32"/>
+      <c r="C10" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="32"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="32"/>
+      <c r="C12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="32"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="58" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="32"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="32"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="24" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="25"/>
-      <c r="C10" s="7" t="s">
+      <c r="C16" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="2:4" ht="58" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="2:4" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="25"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="26"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="12"/>
+    </row>
+    <row r="19" spans="2:4" ht="38" x14ac:dyDescent="0.25">
+      <c r="B19" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="37"/>
+    </row>
+    <row r="20" spans="2:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="B20" s="35"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="36"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B13:B15"/>
+  <mergeCells count="7">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B16:B18"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B6:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1157,7 +1222,7 @@
   <dimension ref="B3:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1172,38 +1237,38 @@
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="21"/>
+      <c r="C4" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="21"/>
+      <c r="C6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1214,65 +1279,65 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="7" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="25"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="7"/>
       <c r="D11" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="3"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="36"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="3"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="B14" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="37" t="s">
-        <v>80</v>
+      <c r="B14" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="21" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="38" t="s">
-        <v>81</v>
+      <c r="B15" s="35"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="39"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1298,111 +1363,111 @@
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="21"/>
+      <c r="C4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="21"/>
+      <c r="C6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="21"/>
+      <c r="C7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="7"/>
       <c r="D9" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="25"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="3"/>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="3"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="19"/>
+      <c r="B14" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="25"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1410,10 +1475,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D16"/>
+  <dimension ref="B3:D14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1428,109 +1493,98 @@
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="21"/>
+      <c r="C4" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="21"/>
+      <c r="C6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="21"/>
+      <c r="C7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="25"/>
-      <c r="C10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="32"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="32"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
+      <c r="D11" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25"/>
-      <c r="C12" s="3"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="2:4" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="25"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
+    <row r="14" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="32"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B8:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1538,17 +1592,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D13"/>
+  <dimension ref="B3:D14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="28.5" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1556,40 +1610,40 @@
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="21"/>
+      <c r="C4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="21"/>
+      <c r="C5" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="21"/>
+      <c r="C6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="21"/>
+      <c r="C7" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1600,37 +1654,44 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="25"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="6" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
-      <c r="C11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="32"/>
+      <c r="C12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="32"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1638,7 +1699,7 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B8:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1664,78 +1725,78 @@
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="7"/>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="25"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="7"/>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="3"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="3"/>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="24"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="2:4" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="25"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="4"/>
       <c r="D16" s="2"/>
     </row>
@@ -1757,7 +1818,7 @@
   <dimension ref="B3:D17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1772,120 +1833,120 @@
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="21"/>
+      <c r="C4" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="21"/>
+      <c r="C6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="21"/>
+      <c r="C7" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="7" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="25"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="7"/>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="58" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="25"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="3"/>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19" t="s">
-        <v>57</v>
+      <c r="B15" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="25"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="25"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="4"/>
       <c r="D17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B15:B17"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B8:B14"/>
-    <mergeCell ref="B15:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1911,38 +1972,38 @@
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="21"/>
+      <c r="C4" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="21"/>
+      <c r="C6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1953,33 +2014,33 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="58" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="7" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="25"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="7"/>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="3"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="4"/>
       <c r="D13" s="2"/>
     </row>
@@ -2000,7 +2061,7 @@
   <dimension ref="B3:D13"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2015,38 +2076,38 @@
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="21"/>
+      <c r="C4" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="21"/>
+      <c r="C6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -2057,33 +2118,33 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="58" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="25"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="7"/>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="3"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="4"/>
       <c r="D13" s="2"/>
     </row>
@@ -2104,7 +2165,7 @@
   <dimension ref="B3:D16"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2119,113 +2180,115 @@
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="21"/>
+      <c r="C4" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="21"/>
+      <c r="C6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="21"/>
+      <c r="C7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="7" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="25"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="25"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="3"/>
       <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="19"/>
+      <c r="B14" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="25"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
